--- a/ToDoApp-Doc/Document/Diagram/UseCase/Export_Print/Export_Print_Specification.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/UseCase/Export_Print/Export_Print_Specification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8310" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="8310" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="108">
   <si>
     <t>Use-case number:</t>
   </si>
@@ -372,6 +372,9 @@
     <t>Print File Image</t>
   </si>
   <si>
+    <t xml:space="preserve">Chức năng in file hình cho người dùng </t>
+  </si>
+  <si>
     <t>- Người dùng click vào "Print"
 - Hệ thống hiển thị các tiêu chí : Print File PDF, Print File Image. 
 - Người dùng click vào "Print File Image"
@@ -395,10 +398,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -437,21 +440,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -473,70 +461,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -557,6 +502,44 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -571,17 +554,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,7 +599,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,79 +695,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,13 +725,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,25 +743,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,25 +755,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,7 +773,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,21 +958,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -982,8 +970,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,21 +1002,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1035,15 +1023,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1052,151 +1031,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2655,8 +2658,8 @@
   <sheetPr/>
   <dimension ref="B1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="32" customHeight="1" outlineLevelCol="3"/>
@@ -2701,7 +2704,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -2718,7 +2721,7 @@
     </row>
     <row r="8" ht="57" customHeight="1" spans="2:4">
       <c r="B8" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>95</v>
@@ -2730,10 +2733,10 @@
     <row r="9" ht="57" customHeight="1" spans="2:4">
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
@@ -2768,7 +2771,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -2786,7 +2789,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -8550,7 +8553,7 @@
   <sheetPr/>
   <dimension ref="B3:D1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
